--- a/results1.xlsx
+++ b/results1.xlsx
@@ -488,7 +488,9 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>('Вр. сопр. норма - 380-490', '\n', 'Годен', '\n', 'Угол загиба 80 градусов')</t>
+          <t>Вр. сопр. норма - 380-490
+Годен
+Угол загиба 80 градусов</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
